--- a/REGULAR/OJT/GATPANDAN, DOLORES.xlsx
+++ b/REGULAR/OJT/GATPANDAN, DOLORES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78B72E0-EB55-43E5-9EC8-2E2BC7A25661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E27339F-F8B4-4C8B-A523-1418F4207B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>1/26,27/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -6049,7 +6052,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6143,6 +6146,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6164,6 +6170,10 @@
       <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>131.5</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
